--- a/mmo_excel/xlsx/monster.xlsx
+++ b/mmo_excel/xlsx/monster.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\mmo_demo\mmo_excel\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79A27176-863A-4EA8-ACB2-9C16E7C733CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7375EFFE-2B7E-4661-909E-0C305663DC60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="1560" windowWidth="21600" windowHeight="13110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5355" yWindow="1905" windowWidth="21600" windowHeight="13125" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -171,14 +171,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[1101,1004]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1001,1004,1103]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[[80,1001,2],[80,1101,1],[50,1302,1]]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -200,6 +192,14 @@
   </si>
   <si>
     <t>无害小怪怪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1101,1003,1004]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1001,1003,1004,1103]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -543,7 +543,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -581,10 +581,10 @@
         <v>23</v>
       </c>
       <c r="J1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -619,7 +619,7 @@
         <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -697,7 +697,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -735,7 +735,7 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D6">
         <v>150</v>
@@ -753,7 +753,7 @@
         <v>20</v>
       </c>
       <c r="I6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J6">
         <v>3</v>
@@ -770,7 +770,7 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D7">
         <v>500</v>
@@ -788,7 +788,7 @@
         <v>50</v>
       </c>
       <c r="I7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J7">
         <v>10</v>
